--- a/포트폴리오제출/14. 이형준 요구사항 정의서(웹).xlsx
+++ b/포트폴리오제출/14. 이형준 요구사항 정의서(웹).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="132">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -58,9 +58,6 @@
     <t>담당자</t>
   </si>
   <si>
-    <t>일정계획</t>
-  </si>
-  <si>
     <t>진행상황</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
   </si>
   <si>
     <t>화면코드(Mobile)</t>
-  </si>
-  <si>
-    <t>사용자</t>
   </si>
   <si>
     <t>메인화면</t>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>HJ - M - 001</t>
-  </si>
-  <si>
-    <t>공지사항</t>
   </si>
   <si>
     <t>관리자가 등록한 공지사항 보기</t>
@@ -479,6 +470,107 @@
   </si>
   <si>
     <t>요구사항정의서(웹)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 설명</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지로 로그인, 메이커 관련, 서포터 관련 기능으로
+이동할 수 있는 메뉴 제공</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록을 위한메이커로 로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 로그인을 위한 회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입 이후 개인정보 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이후 개인정보 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 펀딩을 받기 위한 상품 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 이후 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 등록한 상품을 펀딩하기 위해 서포터 로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 로그인을 위한 회원가입</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 등록한 상품 펀딩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 등록한 상품에 대한 문의사항 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 등록한 상품에 대한 다양한 의견 공유</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람이 등록한 의견에 대해 의견 공유</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스에 대한 공지사항을 확인하는 메뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 관련 문의사항을 질문하는 메뉴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 시 자주 질문하는 내용에 대한 답변</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 메뉴에 접근하기 위한 로그인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커, 서포터 회원에 대한 정보 수정 가능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자가 게시한 Q&amp;A에 대한 답변 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 커뮤니티에 게시된 글에 대해 삭제, 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커가 게시한 상품에 대해 삭제나 수정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -753,21 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -838,11 +915,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -913,17 +1091,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,74 +1129,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1017,7 +1156,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1254,7 +1458,7 @@
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="35.28515625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
@@ -1298,22 +1502,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1" thickTop="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
+      <c r="B2" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1335,20 +1539,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="62"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1405,11 +1609,11 @@
     </row>
     <row r="5" spans="1:33" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>43860</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>80</v>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1478,13 +1682,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1493,30 +1697,30 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="29" t="s">
+      <c r="M7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="N7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="P7" s="36" t="s">
         <v>15</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>16</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1537,32 +1741,22 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="23"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="24">
-        <v>43854</v>
-      </c>
-      <c r="H8" s="24">
-        <v>43858</v>
-      </c>
-      <c r="I8" s="24">
-        <v>43859</v>
-      </c>
-      <c r="J8" s="24">
-        <v>43860</v>
-      </c>
-      <c r="K8" s="24">
-        <v>43861</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1582,26 +1776,28 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="36">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="35" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="22"/>
@@ -1609,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1633,39 +1829,41 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="28.5" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="47" t="s">
-        <v>88</v>
+      <c r="A10" s="34"/>
+      <c r="B10" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="8"/>
       <c r="M10" s="11"/>
       <c r="N10" s="13">
         <v>2</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1684,37 +1882,39 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="24">
-      <c r="A11" s="54"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="8"/>
       <c r="M11" s="21"/>
       <c r="N11" s="13">
         <v>1</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1733,37 +1933,39 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="13">
         <v>2</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1782,35 +1984,37 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="24">
-      <c r="A13" s="54"/>
-      <c r="B13" s="45" t="s">
-        <v>87</v>
+      <c r="A13" s="34"/>
+      <c r="B13" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="8"/>
       <c r="M13" s="11"/>
       <c r="N13" s="13">
         <v>1</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1831,33 +2035,35 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="24">
-      <c r="A14" s="54"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="8"/>
       <c r="M14" s="5"/>
       <c r="N14" s="13">
         <v>1</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1878,35 +2084,37 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="24">
-      <c r="A15" s="54"/>
-      <c r="B15" s="47" t="s">
-        <v>89</v>
+      <c r="A15" s="34"/>
+      <c r="B15" s="49" t="s">
+        <v>86</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="39"/>
       <c r="L15" s="8"/>
       <c r="M15" s="5"/>
       <c r="N15" s="13">
         <v>2</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1927,33 +2135,35 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="24">
-      <c r="A16" s="54"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="8"/>
       <c r="M16" s="5"/>
       <c r="N16" s="13">
         <v>2</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1974,19 +2184,21 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="24" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="36"/>
+      <c r="H17" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="8"/>
       <c r="M17" s="5"/>
       <c r="N17" s="13"/>
@@ -2011,37 +2223,39 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="51" t="s">
-        <v>93</v>
+      <c r="A18" s="34"/>
+      <c r="B18" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="39"/>
       <c r="L18" s="8"/>
       <c r="M18" s="5"/>
       <c r="N18" s="13">
         <v>2</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2062,19 +2276,21 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="36"/>
+      <c r="H19" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="39"/>
       <c r="L19" s="8"/>
       <c r="M19" s="15"/>
       <c r="N19" s="13"/>
@@ -2099,21 +2315,23 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="53" t="s">
-        <v>96</v>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="36"/>
+      <c r="H20" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="8"/>
       <c r="M20" s="15"/>
       <c r="N20" s="13"/>
@@ -2138,19 +2356,21 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="36"/>
+      <c r="H21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="8"/>
       <c r="M21" s="15"/>
       <c r="N21" s="13"/>
@@ -2174,36 +2394,38 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="12.75">
-      <c r="A22" s="54"/>
-      <c r="B22" s="45" t="s">
-        <v>53</v>
+    <row r="22" spans="1:33" ht="24.75" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="9"/>
       <c r="M22" s="16"/>
       <c r="N22" s="13">
         <v>2</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2223,34 +2445,36 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="12.75">
-      <c r="A23" s="54"/>
-      <c r="B23" s="48"/>
+    <row r="23" spans="1:33" ht="25.5" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="9"/>
       <c r="M23" s="5"/>
       <c r="N23" s="13">
         <v>2</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2270,34 +2494,36 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="12.75">
-      <c r="A24" s="52"/>
-      <c r="B24" s="46"/>
+    <row r="24" spans="1:33" ht="27" customHeight="1">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="9"/>
       <c r="M24" s="5"/>
       <c r="N24" s="13">
         <v>2</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2317,35 +2543,37 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:33" ht="25.5" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="43"/>
+      <c r="G25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="9"/>
       <c r="M25" s="11"/>
       <c r="N25" s="13">
         <v>3</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="1"/>
@@ -2366,22 +2594,24 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A26" s="56"/>
+    <row r="26" spans="1:33" ht="28.5" customHeight="1">
+      <c r="A26" s="35"/>
       <c r="B26" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="43"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="9"/>
       <c r="M26" s="11"/>
       <c r="N26" s="13"/>
@@ -2405,33 +2635,35 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" ht="45" customHeight="1">
-      <c r="A27" s="48"/>
+    <row r="27" spans="1:33" ht="27" customHeight="1">
+      <c r="A27" s="31"/>
       <c r="B27" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43"/>
+      <c r="G27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="9"/>
       <c r="M27" s="5"/>
       <c r="N27" s="13">
         <v>3</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="1"/>
@@ -2453,32 +2685,34 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="33.75" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="43"/>
+      <c r="G28" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="9"/>
       <c r="M28" s="5"/>
       <c r="N28" s="13">
         <v>3</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="1"/>
@@ -2500,21 +2734,23 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="33.75" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="43"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="9"/>
       <c r="M29" s="5"/>
       <c r="N29" s="13"/>
@@ -2538,33 +2774,35 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" ht="36">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:33" ht="24.75" customHeight="1">
+      <c r="A30" s="32"/>
       <c r="B30" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="43"/>
+      <c r="G30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="9"/>
       <c r="M30" s="5"/>
       <c r="N30" s="13">
         <v>3</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="1"/>
@@ -2718,7 +2956,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="2" t="s">
@@ -2753,7 +2991,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="2" t="s">
@@ -2788,7 +3026,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="2" t="s">
@@ -2824,7 +3062,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="2" t="s">
@@ -2860,7 +3098,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="2" t="s">
@@ -10655,28 +10893,50 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="21">
+  <mergeCells count="43">
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="H9:J9"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A9:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="K9:K30"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -10704,7 +10964,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -10712,7 +10972,7 @@
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -10720,7 +10980,7 @@
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -10728,7 +10988,7 @@
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -10736,7 +10996,7 @@
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
